--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.92287646124484</v>
+        <v>3.285322</v>
       </c>
       <c r="H2">
-        <v>1.92287646124484</v>
+        <v>9.855966</v>
       </c>
       <c r="I2">
-        <v>0.347749567167576</v>
+        <v>0.4533344065718998</v>
       </c>
       <c r="J2">
-        <v>0.347749567167576</v>
+        <v>0.4533344065718997</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>15.4937140227409</v>
+        <v>0.08106100000000001</v>
       </c>
       <c r="N2">
-        <v>15.4937140227409</v>
+        <v>0.243183</v>
       </c>
       <c r="O2">
-        <v>0.8578426008864789</v>
+        <v>0.004404799763312406</v>
       </c>
       <c r="P2">
-        <v>0.8578426008864789</v>
+        <v>0.004404799763312406</v>
       </c>
       <c r="Q2">
-        <v>29.79249799158757</v>
+        <v>0.2663114866420001</v>
       </c>
       <c r="R2">
-        <v>29.79249799158757</v>
+        <v>2.396803379778</v>
       </c>
       <c r="S2">
-        <v>0.2983143931561807</v>
+        <v>0.001996847286769274</v>
       </c>
       <c r="T2">
-        <v>0.2983143931561807</v>
+        <v>0.001996847286769274</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.92287646124484</v>
+        <v>3.285322</v>
       </c>
       <c r="H3">
-        <v>1.92287646124484</v>
+        <v>9.855966</v>
       </c>
       <c r="I3">
-        <v>0.347749567167576</v>
+        <v>0.4533344065718998</v>
       </c>
       <c r="J3">
-        <v>0.347749567167576</v>
+        <v>0.4533344065718997</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.56754104518179</v>
+        <v>15.70489833333333</v>
       </c>
       <c r="N3">
-        <v>2.56754104518179</v>
+        <v>47.114695</v>
       </c>
       <c r="O3">
-        <v>0.142157399113521</v>
+        <v>0.8533935241547975</v>
       </c>
       <c r="P3">
-        <v>0.142157399113521</v>
+        <v>0.8533935241547975</v>
       </c>
       <c r="Q3">
-        <v>4.937064239060038</v>
+        <v>51.59564800226334</v>
       </c>
       <c r="R3">
-        <v>4.937064239060038</v>
+        <v>464.36083202037</v>
       </c>
       <c r="S3">
-        <v>0.04943517401139529</v>
+        <v>0.3868726468450174</v>
       </c>
       <c r="T3">
-        <v>0.04943517401139529</v>
+        <v>0.3868726468450173</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.53147782689979</v>
+        <v>3.285322</v>
       </c>
       <c r="H4">
-        <v>1.53147782689979</v>
+        <v>9.855966</v>
       </c>
       <c r="I4">
-        <v>0.276965661687056</v>
+        <v>0.4533344065718998</v>
       </c>
       <c r="J4">
-        <v>0.276965661687056</v>
+        <v>0.4533344065718997</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>15.4937140227409</v>
+        <v>0.03299466666666667</v>
       </c>
       <c r="N4">
-        <v>15.4937140227409</v>
+        <v>0.098984</v>
       </c>
       <c r="O4">
-        <v>0.8578426008864789</v>
+        <v>0.001792907809228914</v>
       </c>
       <c r="P4">
-        <v>0.8578426008864789</v>
+        <v>0.001792907809228914</v>
       </c>
       <c r="Q4">
-        <v>23.72827948215404</v>
+        <v>0.1083981042826667</v>
       </c>
       <c r="R4">
-        <v>23.72827948215404</v>
+        <v>0.975582938544</v>
       </c>
       <c r="S4">
-        <v>0.2375929435778687</v>
+        <v>0.0008127867977349147</v>
       </c>
       <c r="T4">
-        <v>0.2375929435778687</v>
+        <v>0.0008127867977349147</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.53147782689979</v>
+        <v>3.285322</v>
       </c>
       <c r="H5">
-        <v>1.53147782689979</v>
+        <v>9.855966</v>
       </c>
       <c r="I5">
-        <v>0.276965661687056</v>
+        <v>0.4533344065718998</v>
       </c>
       <c r="J5">
-        <v>0.276965661687056</v>
+        <v>0.4533344065718997</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.56754104518179</v>
+        <v>2.583925666666666</v>
       </c>
       <c r="N5">
-        <v>2.56754104518179</v>
+        <v>7.751776999999999</v>
       </c>
       <c r="O5">
-        <v>0.142157399113521</v>
+        <v>0.140408768272661</v>
       </c>
       <c r="P5">
-        <v>0.142157399113521</v>
+        <v>0.1404087682726611</v>
       </c>
       <c r="Q5">
-        <v>3.932132180351023</v>
+        <v>8.489027839064665</v>
       </c>
       <c r="R5">
-        <v>3.932132180351023</v>
+        <v>76.401250551582</v>
       </c>
       <c r="S5">
-        <v>0.03937271810918726</v>
+        <v>0.06365212564237818</v>
       </c>
       <c r="T5">
-        <v>0.03937271810918726</v>
+        <v>0.0636521256423782</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.06210136593263</v>
+        <v>1.533623</v>
       </c>
       <c r="H6">
-        <v>1.06210136593263</v>
+        <v>4.600869</v>
       </c>
       <c r="I6">
-        <v>0.1920795733554588</v>
+        <v>0.2116212878402838</v>
       </c>
       <c r="J6">
-        <v>0.1920795733554588</v>
+        <v>0.2116212878402837</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>15.4937140227409</v>
+        <v>0.08106100000000001</v>
       </c>
       <c r="N6">
-        <v>15.4937140227409</v>
+        <v>0.243183</v>
       </c>
       <c r="O6">
-        <v>0.8578426008864789</v>
+        <v>0.004404799763312406</v>
       </c>
       <c r="P6">
-        <v>0.8578426008864789</v>
+        <v>0.004404799763312406</v>
       </c>
       <c r="Q6">
-        <v>16.45589482692265</v>
+        <v>0.124317014003</v>
       </c>
       <c r="R6">
-        <v>16.45589482692265</v>
+        <v>1.118853126027</v>
       </c>
       <c r="S6">
-        <v>0.164774040784412</v>
+        <v>0.0009321493985907483</v>
       </c>
       <c r="T6">
-        <v>0.164774040784412</v>
+        <v>0.000932149398590748</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.06210136593263</v>
+        <v>1.533623</v>
       </c>
       <c r="H7">
-        <v>1.06210136593263</v>
+        <v>4.600869</v>
       </c>
       <c r="I7">
-        <v>0.1920795733554588</v>
+        <v>0.2116212878402838</v>
       </c>
       <c r="J7">
-        <v>0.1920795733554588</v>
+        <v>0.2116212878402837</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.56754104518179</v>
+        <v>15.70489833333333</v>
       </c>
       <c r="N7">
-        <v>2.56754104518179</v>
+        <v>47.114695</v>
       </c>
       <c r="O7">
-        <v>0.142157399113521</v>
+        <v>0.8533935241547975</v>
       </c>
       <c r="P7">
-        <v>0.142157399113521</v>
+        <v>0.8533935241547975</v>
       </c>
       <c r="Q7">
-        <v>2.726988851175672</v>
+        <v>24.08539329666167</v>
       </c>
       <c r="R7">
-        <v>2.726988851175672</v>
+        <v>216.768539669955</v>
       </c>
       <c r="S7">
-        <v>0.02730553257104679</v>
+        <v>0.1805962366161966</v>
       </c>
       <c r="T7">
-        <v>0.02730553257104679</v>
+        <v>0.1805962366161965</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.01303062798109</v>
+        <v>1.533623</v>
       </c>
       <c r="H8">
-        <v>1.01303062798109</v>
+        <v>4.600869</v>
       </c>
       <c r="I8">
-        <v>0.1832051977899093</v>
+        <v>0.2116212878402838</v>
       </c>
       <c r="J8">
-        <v>0.1832051977899093</v>
+        <v>0.2116212878402837</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>15.4937140227409</v>
+        <v>0.03299466666666667</v>
       </c>
       <c r="N8">
-        <v>15.4937140227409</v>
+        <v>0.098984</v>
       </c>
       <c r="O8">
-        <v>0.8578426008864789</v>
+        <v>0.001792907809228914</v>
       </c>
       <c r="P8">
-        <v>0.8578426008864789</v>
+        <v>0.001792907809228914</v>
       </c>
       <c r="Q8">
-        <v>15.69560684621663</v>
+        <v>0.05060137967733334</v>
       </c>
       <c r="R8">
-        <v>15.69560684621663</v>
+        <v>0.4554124170960001</v>
       </c>
       <c r="S8">
-        <v>0.1571612233680175</v>
+        <v>0.0003794174595679246</v>
       </c>
       <c r="T8">
-        <v>0.1571612233680175</v>
+        <v>0.0003794174595679245</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.01303062798109</v>
+        <v>1.533623</v>
       </c>
       <c r="H9">
-        <v>1.01303062798109</v>
+        <v>4.600869</v>
       </c>
       <c r="I9">
-        <v>0.1832051977899093</v>
+        <v>0.2116212878402838</v>
       </c>
       <c r="J9">
-        <v>0.1832051977899093</v>
+        <v>0.2116212878402837</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.56754104518179</v>
+        <v>2.583925666666666</v>
       </c>
       <c r="N9">
-        <v>2.56754104518179</v>
+        <v>7.751776999999999</v>
       </c>
       <c r="O9">
-        <v>0.142157399113521</v>
+        <v>0.140408768272661</v>
       </c>
       <c r="P9">
-        <v>0.142157399113521</v>
+        <v>0.1404087682726611</v>
       </c>
       <c r="Q9">
-        <v>2.600997717367733</v>
+        <v>3.962767832690333</v>
       </c>
       <c r="R9">
-        <v>2.600997717367733</v>
+        <v>35.664910494213</v>
       </c>
       <c r="S9">
-        <v>0.02604397442189169</v>
+        <v>0.0297134843659285</v>
       </c>
       <c r="T9">
-        <v>0.02604397442189169</v>
+        <v>0.0297134843659285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.389186666666667</v>
+      </c>
+      <c r="H10">
+        <v>4.16756</v>
+      </c>
+      <c r="I10">
+        <v>0.1916908336993843</v>
+      </c>
+      <c r="J10">
+        <v>0.1916908336993843</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.08106100000000001</v>
+      </c>
+      <c r="N10">
+        <v>0.243183</v>
+      </c>
+      <c r="O10">
+        <v>0.004404799763312406</v>
+      </c>
+      <c r="P10">
+        <v>0.004404799763312406</v>
+      </c>
+      <c r="Q10">
+        <v>0.1126088603866667</v>
+      </c>
+      <c r="R10">
+        <v>1.01347974348</v>
+      </c>
+      <c r="S10">
+        <v>0.0008443597389082058</v>
+      </c>
+      <c r="T10">
+        <v>0.0008443597389082058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.389186666666667</v>
+      </c>
+      <c r="H11">
+        <v>4.16756</v>
+      </c>
+      <c r="I11">
+        <v>0.1916908336993843</v>
+      </c>
+      <c r="J11">
+        <v>0.1916908336993843</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>15.70489833333333</v>
+      </c>
+      <c r="N11">
+        <v>47.114695</v>
+      </c>
+      <c r="O11">
+        <v>0.8533935241547975</v>
+      </c>
+      <c r="P11">
+        <v>0.8533935241547975</v>
+      </c>
+      <c r="Q11">
+        <v>21.81703536602222</v>
+      </c>
+      <c r="R11">
+        <v>196.3533182942</v>
+      </c>
+      <c r="S11">
+        <v>0.1635877161188888</v>
+      </c>
+      <c r="T11">
+        <v>0.1635877161188888</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.389186666666667</v>
+      </c>
+      <c r="H12">
+        <v>4.16756</v>
+      </c>
+      <c r="I12">
+        <v>0.1916908336993843</v>
+      </c>
+      <c r="J12">
+        <v>0.1916908336993843</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.03299466666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.098984</v>
+      </c>
+      <c r="O12">
+        <v>0.001792907809228914</v>
+      </c>
+      <c r="P12">
+        <v>0.001792907809228914</v>
+      </c>
+      <c r="Q12">
+        <v>0.04583575100444444</v>
+      </c>
+      <c r="R12">
+        <v>0.41252175904</v>
+      </c>
+      <c r="S12">
+        <v>0.0003436839926972273</v>
+      </c>
+      <c r="T12">
+        <v>0.0003436839926972273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.389186666666667</v>
+      </c>
+      <c r="H13">
+        <v>4.16756</v>
+      </c>
+      <c r="I13">
+        <v>0.1916908336993843</v>
+      </c>
+      <c r="J13">
+        <v>0.1916908336993843</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.583925666666666</v>
+      </c>
+      <c r="N13">
+        <v>7.751776999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.140408768272661</v>
+      </c>
+      <c r="P13">
+        <v>0.1404087682726611</v>
+      </c>
+      <c r="Q13">
+        <v>3.58955508379111</v>
+      </c>
+      <c r="R13">
+        <v>32.30599575412</v>
+      </c>
+      <c r="S13">
+        <v>0.02691507384889006</v>
+      </c>
+      <c r="T13">
+        <v>0.02691507384889007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.038885</v>
+      </c>
+      <c r="H14">
+        <v>3.116655</v>
+      </c>
+      <c r="I14">
+        <v>0.1433534718884322</v>
+      </c>
+      <c r="J14">
+        <v>0.1433534718884322</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.08106100000000001</v>
+      </c>
+      <c r="N14">
+        <v>0.243183</v>
+      </c>
+      <c r="O14">
+        <v>0.004404799763312406</v>
+      </c>
+      <c r="P14">
+        <v>0.004404799763312406</v>
+      </c>
+      <c r="Q14">
+        <v>0.08421305698499999</v>
+      </c>
+      <c r="R14">
+        <v>0.757917512865</v>
+      </c>
+      <c r="S14">
+        <v>0.0006314433390441778</v>
+      </c>
+      <c r="T14">
+        <v>0.0006314433390441778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.038885</v>
+      </c>
+      <c r="H15">
+        <v>3.116655</v>
+      </c>
+      <c r="I15">
+        <v>0.1433534718884322</v>
+      </c>
+      <c r="J15">
+        <v>0.1433534718884322</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>15.70489833333333</v>
+      </c>
+      <c r="N15">
+        <v>47.114695</v>
+      </c>
+      <c r="O15">
+        <v>0.8533935241547975</v>
+      </c>
+      <c r="P15">
+        <v>0.8533935241547975</v>
+      </c>
+      <c r="Q15">
+        <v>16.315583305025</v>
+      </c>
+      <c r="R15">
+        <v>146.840249745225</v>
+      </c>
+      <c r="S15">
+        <v>0.1223369245746949</v>
+      </c>
+      <c r="T15">
+        <v>0.1223369245746949</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.038885</v>
+      </c>
+      <c r="H16">
+        <v>3.116655</v>
+      </c>
+      <c r="I16">
+        <v>0.1433534718884322</v>
+      </c>
+      <c r="J16">
+        <v>0.1433534718884322</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.03299466666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.098984</v>
+      </c>
+      <c r="O16">
+        <v>0.001792907809228914</v>
+      </c>
+      <c r="P16">
+        <v>0.001792907809228914</v>
+      </c>
+      <c r="Q16">
+        <v>0.03427766427999999</v>
+      </c>
+      <c r="R16">
+        <v>0.30849897852</v>
+      </c>
+      <c r="S16">
+        <v>0.0002570195592288477</v>
+      </c>
+      <c r="T16">
+        <v>0.0002570195592288478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.038885</v>
+      </c>
+      <c r="H17">
+        <v>3.116655</v>
+      </c>
+      <c r="I17">
+        <v>0.1433534718884322</v>
+      </c>
+      <c r="J17">
+        <v>0.1433534718884322</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.583925666666666</v>
+      </c>
+      <c r="N17">
+        <v>7.751776999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.140408768272661</v>
+      </c>
+      <c r="P17">
+        <v>0.1404087682726611</v>
+      </c>
+      <c r="Q17">
+        <v>2.684401616214999</v>
+      </c>
+      <c r="R17">
+        <v>24.15961454593499</v>
+      </c>
+      <c r="S17">
+        <v>0.02012808441546431</v>
+      </c>
+      <c r="T17">
+        <v>0.02012808441546431</v>
       </c>
     </row>
   </sheetData>
